--- a/volatility/src/xls/02_EURJPY.xlsx
+++ b/volatility/src/xls/02_EURJPY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
+    <workbookView xWindow="320" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -569,19 +569,19 @@
         <v>55757</v>
       </c>
       <c r="E6" s="5">
-        <v>99.1</v>
+        <v>121.6</v>
       </c>
       <c r="G6" s="5">
         <f>E6+B9</f>
-        <v>99.699999999999989</v>
+        <v>122.19999999999999</v>
       </c>
       <c r="H6" s="5">
         <f>G6+B8</f>
-        <v>101.49999999999999</v>
+        <v>123.99999999999999</v>
       </c>
       <c r="I6" s="5">
         <f>G6-B8</f>
-        <v>97.899999999999991</v>
+        <v>120.39999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -611,15 +611,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>E6-B9</f>
-        <v>98.5</v>
+        <v>121</v>
       </c>
       <c r="H10" s="5">
         <f>G10-B8</f>
-        <v>96.7</v>
+        <v>119.2</v>
       </c>
       <c r="I10" s="5">
         <f>G10+B8</f>
-        <v>100.3</v>
+        <v>122.8</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
